--- a/DIAGRAMS/QUALITY-TESTCASE.xlsx
+++ b/DIAGRAMS/QUALITY-TESTCASE.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA316DDB-22C1-4C98-B7AC-04FCBAE7627F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -315,11 +316,77 @@
   <si>
     <t>Humanitarian Relations Login</t>
   </si>
+  <si>
+    <t>Input Regional Admin Account</t>
+  </si>
+  <si>
+    <t>1. Requires a registered Regional Admin account</t>
+  </si>
+  <si>
+    <t>1. Enter username</t>
+  </si>
+  <si>
+    <t>Display the Regional Admin Index layout</t>
+  </si>
+  <si>
+    <t>Input City/Municipal Admin Account</t>
+  </si>
+  <si>
+    <t>1. Requires a registered City/Municipal Admin Account</t>
+  </si>
+  <si>
+    <t>Input Camp Coordination External User Account</t>
+  </si>
+  <si>
+    <t>Input Dead and Missing External User Account</t>
+  </si>
+  <si>
+    <t>1. Requires a Camp Coordination External User Account</t>
+  </si>
+  <si>
+    <t>Input Law and Order External User Account</t>
+  </si>
+  <si>
+    <t>Input Humanitarian Relations External User Account</t>
+  </si>
+  <si>
+    <t>Input Food and Non-Food External User Account</t>
+  </si>
+  <si>
+    <t>1. Requires a Food and Non-Food External User Account</t>
+  </si>
+  <si>
+    <t>1. Requires a Dead and Missing External User Account</t>
+  </si>
+  <si>
+    <t>1. Requires a Law and Order External User Account</t>
+  </si>
+  <si>
+    <t>1. Requires a Humanitarian Relations External User Account</t>
+  </si>
+  <si>
+    <t>Display the City/Municipal Admin Index layout</t>
+  </si>
+  <si>
+    <t>Display the Camp Coordination External User Index layout</t>
+  </si>
+  <si>
+    <t>Display the Dead and Missing Index layout</t>
+  </si>
+  <si>
+    <t>Display the Food and Non-Food Index layout</t>
+  </si>
+  <si>
+    <t>Display the Law and Order Index layout</t>
+  </si>
+  <si>
+    <t>Display the Humanitarian Relations Index layout</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,12 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -442,6 +503,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -475,7 +545,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -787,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,53 +873,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -884,513 +954,635 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="C21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+    <row r="25" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="28" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="31" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="34" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+    <row r="37" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="10"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1756,107 +1948,259 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
+  <mergeCells count="78">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -1871,6 +2215,34 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DIAGRAMS/QUALITY-TESTCASE.xlsx
+++ b/DIAGRAMS/QUALITY-TESTCASE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\SOFTDEV-QUALITY3\DIAGRAMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA316DDB-22C1-4C98-B7AC-04FCBAE7627F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11500" windowHeight="4610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -382,12 +381,138 @@
   <si>
     <t>Display the Humanitarian Relations Index layout</t>
   </si>
+  <si>
+    <t>1. Select Vehicle Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Vehicle category, vehicle type, and fill-up requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful Add Vehicle </t>
+  </si>
+  <si>
+    <t>Regional Admin add vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Select Dropdown option: Land, Water, Air &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Select Vehicle Type: Heavy-duty, Medium-duty, Light-duty &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select Vehicle type  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Fill up Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Valid Requirements&gt; </t>
+  </si>
+  <si>
+    <t>4. Click "Add Vehicle" button</t>
+  </si>
+  <si>
+    <t>Provincial Admin add vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Logged in Regional Admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Logged in Provincial Admin </t>
+  </si>
+  <si>
+    <t>City Mayor add vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Logged in City Mayor </t>
+  </si>
+  <si>
+    <t>External User add vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Logged in External User </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Blocked Dropdown category: Land, Water, Air &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Blocked Dropdown Type: Heavy-duty, Medium-duty, Light-duty &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Blocked: Fill-up Requirements &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Blocked: Add vehicle Button &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Add Vehicle layout </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External User attempts to access Add vehicle through url link</t>
+  </si>
+  <si>
+    <t>1. Types URL of Add Vehicle Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Press enter  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; Link of Add Vehicle Module &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a </t>
+  </si>
+  <si>
+    <t>Error "You do not have permission to access this page"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincial Admin Edit Vehicle </t>
+  </si>
+  <si>
+    <t>Input edited information</t>
+  </si>
+  <si>
+    <t>1. Fill-up edited information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click "Edit Vehicle" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful edit Vehicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City Mayor/Municipal Admin Edit Vehicle </t>
+  </si>
+  <si>
+    <t>1. Logged in City Mayor/Municipal Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional admin view vehicle </t>
+  </si>
+  <si>
+    <t>Regional admin filters land type vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User clicks on View Vehicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. System Returns list of vehicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. User selects Land type vehicle filter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. System returns list of land type vehicles </t>
+  </si>
+  <si>
+    <t>Logged in Regional admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +573,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +644,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -515,6 +655,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +706,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -857,71 +1018,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="10" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
+    <col min="7" max="10" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,17 +1114,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -972,56 +1133,56 @@
       <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1030,56 +1191,56 @@
       <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1088,56 +1249,56 @@
       <c r="F15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1146,56 +1307,56 @@
       <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1204,56 +1365,56 @@
       <c r="F21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1262,56 +1423,56 @@
       <c r="F24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1320,56 +1481,56 @@
       <c r="F27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="11" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+    <row r="29" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1378,56 +1539,56 @@
       <c r="F30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+    <row r="32" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -1436,56 +1597,56 @@
       <c r="F33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+    <row r="34" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -1494,656 +1655,814 @@
       <c r="F36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+    <row r="37" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+    <row r="38" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="B42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="11"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="B50" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="11"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="11"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="11"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="B58" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="11"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="11"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="11"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="11"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="B66" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="11"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" s="11"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="11"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="B74" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="11"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="B80" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" s="11"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="B82" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="11"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="B84" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2151,7 +2470,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2164,43 +2483,86 @@
       <c r="J89" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
+  <mergeCells count="129">
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="G58:G65"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G73"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G57"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -2215,34 +2577,42 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
